--- a/IVOTI.xlsx
+++ b/IVOTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9955660A-E6B1-48F7-A150-80E03D3A8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78365B54-6E16-482C-A855-8A7CE66FCD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1059,36 +1059,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1122,14 +1098,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,7 +1119,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1162,7 +1133,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4DF206FE-35DF-4675-B1DE-3EB63AB78C9D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{05B4B010-2026-4E76-9200-DB7CB8D788AF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1192,10 +1163,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE6E5F8-A435-4612-8641-220E4CAA6D21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91827B7-3A5B-4D99-B3C8-275CBECB4201}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1204,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880FA078-8AE6-4B92-BC66-8B0FB73854EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61923272-4548-4897-AA74-58BE78CCF16E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1267,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90B42DE-5335-4A0F-A9C4-D9D992C7E5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1478B-2491-455B-82B1-61CA504CE4E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1286,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464CF4F7-EC58-C6B2-DE0C-F68B61D026F0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BA202F-1233-C9D6-807E-3B8D63C696A7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1364,7 +1335,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1050556-63DA-1BDA-5831-3C33A8756872}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D188C656-4ABA-BF41-85BF-9FD159AB6986}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1383,7 +1354,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B99C2C-A418-5149-CC38-8FB6A7B2A8D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2579F8B-1A43-7662-1FDF-002E8C2907E4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1414,7 +1385,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D151534A-7769-CE8F-1DD2-4F00C9F912E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489E649C-6115-58C7-DB3B-5E4A6C172D4F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1445,7 +1416,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDAD6A3-B91A-85E3-BF53-915C7271C341}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5B24B3-0F94-8494-C720-DA87412078A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1488,7 +1459,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAD9ABE-1C7D-4D21-BFFF-00CAC39E2FFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123E8329-7677-4C95-88BC-858FB1843771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1497,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D8A832-8897-4094-8B94-2453D137CE5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F8EA8B-F1AB-4513-AB5C-1C494C728B45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1540,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6539D88-8612-4768-9BED-0F983F6E87FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417225D5-EDD8-4451-A81D-A3F6C4EDE160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217DE5E5-075C-4D27-9CC7-12C391C1064D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA65D671-9059-4CE0-BCB7-0F01EBA4DE18}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1894,98 +1865,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="31"/>
-    <col min="6" max="6" width="2" style="31" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="31"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="30"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="30"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="30"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="30"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="30"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="30"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="30"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="30"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="30"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="30"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="30"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="30"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="30"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="30"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="30"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="30"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="30"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="30"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="30"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="30"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="30"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="30"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="30"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="30"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="30"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="30"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="30"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="30"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="30"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5132,19 +5103,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5167,46 +5138,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5231,99 +5202,100 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>45839</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>4140</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="24">
         <v>852</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="26" t="s">
         <v>282</v>
       </c>
     </row>

--- a/IVOTI.xlsx
+++ b/IVOTI.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78365B54-6E16-482C-A855-8A7CE66FCD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E36A4D9-450D-490A-A25E-7DED143D8ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="5" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
+    <sheet name="DGC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="288">
   <si>
     <t>Número</t>
   </si>
@@ -873,6 +874,21 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivoti </t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Validou posto que não existe na comarca</t>
   </si>
 </sst>
 </file>
@@ -882,7 +898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +951,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -949,7 +978,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1019,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1062,9 +1097,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,12 +1163,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{05B4B010-2026-4E76-9200-DB7CB8D788AF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{87EA442C-883D-4CC0-8F27-ACD261B39117}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91827B7-3A5B-4D99-B3C8-275CBECB4201}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26983A4-E52E-447C-ABD4-48C987A165E1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61923272-4548-4897-AA74-58BE78CCF16E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FB07AC-0026-4A1E-8ADC-0C7D904BB5A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB1478B-2491-455B-82B1-61CA504CE4E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D2B5B7-5F10-4E5C-8AAA-91416A685204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BA202F-1233-C9D6-807E-3B8D63C696A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A50EA4-2C5E-750B-28B6-F01BA8536D20}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1335,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D188C656-4ABA-BF41-85BF-9FD159AB6986}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF59F4A6-38E6-2796-B68A-48B207B741EE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1354,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2579F8B-1A43-7662-1FDF-002E8C2907E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29ED2C8-E896-61EF-FA0A-DB96C1B8B30E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1385,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489E649C-6115-58C7-DB3B-5E4A6C172D4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857B5F28-7D35-DFFB-8D56-3D1C846BC5B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1416,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5B24B3-0F94-8494-C720-DA87412078A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D614C8A7-EB26-E29A-0BE1-3D89F3FD889B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123E8329-7677-4C95-88BC-858FB1843771}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDFF7E3-3FEF-4DD3-AC9F-DD5C32A03369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F8EA8B-F1AB-4513-AB5C-1C494C728B45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE21300-7922-4700-B9A8-F0656CA20F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1579,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417225D5-EDD8-4451-A81D-A3F6C4EDE160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4989AF6-4175-42AB-8EB6-4DC26A058CED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA65D671-9059-4CE0-BCB7-0F01EBA4DE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D68745-CE4C-4B09-8E32-FF9BC7B3AFE6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1865,98 +1904,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="28"/>
-    <col min="6" max="6" width="2" style="28" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="28"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="27"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="27"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="27"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="27"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="27"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="27"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="27"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="27"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="27"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="27"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="27"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="27"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="27"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="27"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="27"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="27"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="27"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="27"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="27"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="27"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="27"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="27"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="27"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="27"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="27"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="27"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="27"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="27"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="27"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5302,4 +5341,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/IVOTI.xlsx
+++ b/IVOTI.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E36A4D9-450D-490A-A25E-7DED143D8ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0224458-0449-4F6B-9339-0227601DF6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
     <sheet name="DGC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1172,7 +1172,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{87EA442C-883D-4CC0-8F27-ACD261B39117}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1199B475-937C-45F5-9F1D-37D597309E9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26983A4-E52E-447C-ABD4-48C987A165E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BC6169-4F85-44BE-BA07-C3788D5E51EC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FB07AC-0026-4A1E-8ADC-0C7D904BB5A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2014FAFF-6DDC-49FD-9599-CD35A60231F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D2B5B7-5F10-4E5C-8AAA-91416A685204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DCE2E5-EB14-45B1-82F6-E52A6867C722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A50EA4-2C5E-750B-28B6-F01BA8536D20}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E655A3E3-54D4-5758-2EC4-A3DD3E37028F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF59F4A6-38E6-2796-B68A-48B207B741EE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ECE03B-0916-8814-11C0-E4E5B7F6DB4D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29ED2C8-E896-61EF-FA0A-DB96C1B8B30E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E1B5FE-C250-D454-DCFF-9D393EAA8572}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857B5F28-7D35-DFFB-8D56-3D1C846BC5B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53B3DCC-F863-6CE7-5F89-531820E20EA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D614C8A7-EB26-E29A-0BE1-3D89F3FD889B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15C31E4-F015-4351-A242-657802A4E970}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDFF7E3-3FEF-4DD3-AC9F-DD5C32A03369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC80FCF-9B24-46A2-9630-E688992F17F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE21300-7922-4700-B9A8-F0656CA20F58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2175027D-C899-4875-AD03-D952AE37CD3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1579,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4989AF6-4175-42AB-8EB6-4DC26A058CED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613BEB18-FC78-4255-9D3E-1D290C900C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D68745-CE4C-4B09-8E32-FF9BC7B3AFE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5003A5-613B-491B-814E-B8F60073B771}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/IVOTI.xlsx
+++ b/IVOTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0224458-0449-4F6B-9339-0227601DF6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EE4904-B5D9-4B3C-B4ED-A3D1049805CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1199B475-937C-45F5-9F1D-37D597309E9B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{30EA94F6-F943-4CD1-8730-4317DCFEDC1B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BC6169-4F85-44BE-BA07-C3788D5E51EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E600B-6722-49BE-934D-375320BEF764}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2014FAFF-6DDC-49FD-9599-CD35A60231F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F675328F-A21C-4BA9-BE81-DB88124E150B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DCE2E5-EB14-45B1-82F6-E52A6867C722}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39E54BA-C123-4041-9D22-8DF59F24E260}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E655A3E3-54D4-5758-2EC4-A3DD3E37028F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8CC2BF-7E51-2E88-8E24-C563650FCE09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ECE03B-0916-8814-11C0-E4E5B7F6DB4D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79ABD6C-17A3-295B-A7A9-5FC075A43CFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E1B5FE-C250-D454-DCFF-9D393EAA8572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F1084E-D9ED-54E4-B648-3BE73DA002A3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53B3DCC-F863-6CE7-5F89-531820E20EA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782D0E42-C292-BADC-8993-C124F2BD8FB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15C31E4-F015-4351-A242-657802A4E970}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BDE7FB-C31F-FFBC-6A6E-5B19BDB9851A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC80FCF-9B24-46A2-9630-E688992F17F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0D6B6D-695F-445B-A63C-BF9818CC6285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2175027D-C899-4875-AD03-D952AE37CD3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86341FE7-F522-4309-B78F-1DC9AB5535AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,50 +1561,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613BEB18-FC78-4255-9D3E-1D290C900C53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1892,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5003A5-613B-491B-814E-B8F60073B771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D343D4E7-A876-4DF5-B623-36EAB486DA62}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/IVOTI.xlsx
+++ b/IVOTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EE4904-B5D9-4B3C-B4ED-A3D1049805CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA94C9B4-0BAF-4B93-8D98-6943DC039814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,14 +901,6 @@
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -936,6 +928,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1046,21 +1046,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1094,6 +1079,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1101,78 +1101,78 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{30EA94F6-F943-4CD1-8730-4317DCFEDC1B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EDE6C0BB-9532-4D4C-B611-3C5BB5C5A1A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,7 +1202,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E600B-6722-49BE-934D-375320BEF764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51259D6-B2BA-46A5-9680-5A49FC376183}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F675328F-A21C-4BA9-BE81-DB88124E150B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CBFC7E-AFF5-4244-98B2-D6CD28C9F1FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39E54BA-C123-4041-9D22-8DF59F24E260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D2965F-8269-4D66-A008-B12A84532414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8CC2BF-7E51-2E88-8E24-C563650FCE09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B1C78D-612E-B113-2580-1087E5D66CA4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79ABD6C-17A3-295B-A7A9-5FC075A43CFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29655730-FE25-B64F-7329-2EE31793CD29}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F1084E-D9ED-54E4-B648-3BE73DA002A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4FC5E7-8C4C-1ED7-E100-35F3B0FAB38E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782D0E42-C292-BADC-8993-C124F2BD8FB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F65FDCF-B89A-CD37-ABFC-0A69E0AD1F1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BDE7FB-C31F-FFBC-6A6E-5B19BDB9851A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D7E4C1-5BF8-3543-8C25-7BDD2E864BD7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0D6B6D-695F-445B-A63C-BF9818CC6285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776110B9-E7F7-403A-8A7E-9946E504773F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86341FE7-F522-4309-B78F-1DC9AB5535AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BC8E06-92EE-4F08-9A7B-77C2E9B65792}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D343D4E7-A876-4DF5-B623-36EAB486DA62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538813E7-35DA-4366-B10A-DEAF4C08B518}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
